--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1034631.550694925</v>
+        <v>1031902.80740914</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>114.0138441087954</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>22.01480823311093</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>39.91569010595131</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>341.128721020107</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>26.40868448976566</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>82.92375604299512</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>297.7434504260659</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>288.4836500126194</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>112.9558125005973</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>78.92433366407964</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>248.3872097828161</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.0830593329781</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203237998</v>
+        <v>22.60777203238021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114085</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458122</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035096</v>
+        <v>9.753166794035195</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009521</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034029</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>188.6940954117772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337148</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328459</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.94516103140428</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793451</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560532</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.1185786361434</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182137</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.9742741983369</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824604</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>36.43062059490498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>23.10998325717239</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695582</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>135.0353110734891</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012511</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695582</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046969</v>
       </c>
       <c r="D31" t="n">
-        <v>3.475606507913398</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.32649042089676</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.573036851206</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>176.7621441121396</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892427594</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
         <v>1268.68094731003</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2619.88322151527</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2401.248554487333</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2401.248554487333</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2401.248554487333</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2401.248554487333</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>2027.782796226253</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.643464250441</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>687.8101053115339</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>687.8101053115339</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>687.8101053115339</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>687.8101053115339</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>687.8101053115339</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>687.8101053115339</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917581</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>962.9693282917581</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>962.9693282917581</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>962.9693282917581</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>551.9834235021506</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4747,22 +4747,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1609.244883920707</v>
+        <v>1170.868604753196</v>
       </c>
       <c r="C8" t="n">
-        <v>1240.282366980295</v>
+        <v>1170.868604753196</v>
       </c>
       <c r="D8" t="n">
-        <v>882.0166683735445</v>
+        <v>812.6029061464453</v>
       </c>
       <c r="E8" t="n">
-        <v>882.0166683735445</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,19 +4805,19 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>325.1460354086931</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>877.9592936548923</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1064.6587064803</v>
+        <v>1166.769932166871</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4841,13 +4841,13 @@
         <v>2287.242350260201</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.844723984828</v>
+        <v>1934.473694990087</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.844723984828</v>
+        <v>1561.007936729007</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.844723984828</v>
+        <v>1170.868604753196</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1279.805585465869</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1947.349985492879</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2496.785994245602</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2605.4756217729</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>633.9825319621511</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>465.0463490342443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>314.9297096219085</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>314.9297096219085</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>168.0397621239981</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>923.3997019991118</v>
+        <v>557.2852021097942</v>
       </c>
       <c r="V10" t="n">
-        <v>923.3997019991118</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="W10" t="n">
-        <v>633.9825319621511</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="X10" t="n">
-        <v>633.9825319621511</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="Y10" t="n">
-        <v>633.9825319621511</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1670.962501255688</v>
+        <v>1535.258832689353</v>
       </c>
       <c r="C11" t="n">
-        <v>1670.962501255688</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.696802648937</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506928</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610853</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907324</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907324</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386832</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420335</v>
+        <v>704.5155104420322</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878114</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.18066176543</v>
+        <v>2485.180661765426</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687107</v>
+        <v>3070.226377687103</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985629</v>
+        <v>3535.048359856285</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882248</v>
+        <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.5533112346</v>
+        <v>3925.553311234593</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455669</v>
+        <v>3826.588132455663</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971449</v>
+        <v>3622.786021971443</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604058</v>
+        <v>3369.295305604051</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260487</v>
+        <v>3038.232418260481</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990373</v>
+        <v>2685.463762990366</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729293</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>1921.858672753481</v>
+        <v>1921.858672753475</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503049</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792134</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376515</v>
+        <v>477.1621322376506</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649619</v>
+        <v>900.4499396649603</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908852</v>
+        <v>1413.76371390885</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.07202125992</v>
+        <v>1955.072021259917</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.04357412567</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.04357412567</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.4681175427764</v>
+        <v>203.8650582458557</v>
       </c>
       <c r="C13" t="n">
-        <v>781.5319346148696</v>
+        <v>203.8650582458556</v>
       </c>
       <c r="D13" t="n">
-        <v>631.4152952025338</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="E13" t="n">
-        <v>483.5022016201407</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="F13" t="n">
-        <v>336.6122541222304</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="I13" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600403</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457712</v>
+        <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888928</v>
+        <v>717.5002252888919</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715852</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551108</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551108</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551108</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.818336991396</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1612.133848785509</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.716678748549</v>
+        <v>834.2956531176428</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.116582373016</v>
+        <v>606.3061022196255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.116582373016</v>
+        <v>385.5135230760953</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5267,61 +5267,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>372.2013186925058</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446335</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635726</v>
+        <v>494.058990022073</v>
       </c>
       <c r="C16" t="n">
-        <v>537.7313037187198</v>
+        <v>494.058990022073</v>
       </c>
       <c r="D16" t="n">
-        <v>387.614664306384</v>
+        <v>494.058990022073</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239909</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608056</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410169</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149099</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863481</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.34892993536</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373425</v>
+        <v>896.5000339958428</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938123</v>
+        <v>675.7074548523127</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,10 +5768,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925225</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630047</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876696</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597627</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179088</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,52 +6212,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111681</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075746</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332377</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014765</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355918</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068017</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273863</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803922</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516108</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167367</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793916</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348519</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6336,7 +6336,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
         <v>1781.463605996603</v>
@@ -6345,7 +6345,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.614450297915</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>985.7836617409553</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>816.8474788130485</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>666.7308394007127</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>518.8177458183196</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>371.9277983204093</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038325</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797708</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832649</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832649</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.31591485559</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2160.31591485559</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1905.631426649703</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1616.214256612742</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1388.224705714725</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1167.432126571195</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6452,40 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111687</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107575</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332378</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014765</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355919</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291067988</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694682</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852228</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245823</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403384</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266887</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821491</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6573,7 +6573,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
         <v>1781.463605996603</v>
@@ -6582,7 +6582,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.614450297915</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9745311434614</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>701.0383482155545</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711975</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888044</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.724593490894</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358025</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235155</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258096</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258096</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052209</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015248</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117231</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973701</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.6725264685181</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.9487421954784</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>491.0125592675715</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675715</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400713</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474268</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230634</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230634</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138412</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703111</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232839</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,43 +7710,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191914</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349486</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349486</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998428</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237714</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732781</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400655</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121586</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121586</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797724</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138354</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703053</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>196.6584541879434</v>
       </c>
       <c r="N8" t="n">
-        <v>218.6908684491589</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>8.157046754056925</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>3.032596396224108e-11</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.739408617140725e-11</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>134.3466318806645</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>89.18983243802944</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806771</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726022</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146325</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>37.01555997725995</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729275</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613728905</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.3016600672236</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.16217041863466</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.71340154579389</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459435</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303818</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>125.50548976104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823061</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>30.48882721877982</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856585</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016448</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409393098</v>
       </c>
       <c r="D31" t="n">
-        <v>145.139866510299</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856585</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012214</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.25894333073126</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>80.44045370237441</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>109.4223302771045</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372229324</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>889346.8385117454</v>
+        <v>889346.8385117447</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>968095.2776857361</v>
+        <v>968095.2776857357</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973455.4713481059</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973455.4713481065</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>973455.4713481062</v>
+        <v>973455.4713481063</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.973425356</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>451572.9734253561</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.9734253562</v>
-      </c>
       <c r="E2" t="n">
-        <v>405380.8397795045</v>
+        <v>405380.8397795042</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.8744009171</v>
+        <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295033</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.629829503</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>588754.368791969</v>
+        <v>588754.3687919675</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051361</v>
+        <v>166521.3471051371</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925886</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.227184035698883e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>76530.81132370053</v>
+        <v>76530.81132370012</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584887</v>
+        <v>43782.40655848887</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224429</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5578.415609376703</v>
+        <v>5578.415609376701</v>
       </c>
       <c r="F4" t="n">
         <v>5671.003945457393</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.53656668275</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682723</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566683227</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682757</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566683022</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214727</v>
+        <v>86093.72216214714</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26491,10 +26491,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-431176.3993156312</v>
       </c>
       <c r="C6" t="n">
-        <v>158791.4798989134</v>
+        <v>158791.4798989133</v>
       </c>
       <c r="D6" t="n">
-        <v>2987.67380511848</v>
+        <v>2987.673805118335</v>
       </c>
       <c r="E6" t="n">
-        <v>-275045.6667839885</v>
+        <v>-275255.6310278319</v>
       </c>
       <c r="F6" t="n">
-        <v>169139.3948364852</v>
+        <v>169093.4898409186</v>
       </c>
       <c r="G6" t="n">
-        <v>325963.3272033348</v>
+        <v>325928.5892778983</v>
       </c>
       <c r="H6" t="n">
-        <v>337130.5634389134</v>
+        <v>337095.8255134778</v>
       </c>
       <c r="I6" t="n">
-        <v>337130.5634389136</v>
+        <v>337095.8255134778</v>
       </c>
       <c r="J6" t="n">
-        <v>160707.3442463249</v>
+        <v>160672.6063208849</v>
       </c>
       <c r="K6" t="n">
-        <v>337130.5634389131</v>
+        <v>337095.8255134777</v>
       </c>
       <c r="L6" t="n">
-        <v>337130.5634389092</v>
+        <v>337095.8255134777</v>
       </c>
       <c r="M6" t="n">
-        <v>260599.7521152129</v>
+        <v>260565.0141897776</v>
       </c>
       <c r="N6" t="n">
-        <v>293348.1568804246</v>
+        <v>293313.4189549891</v>
       </c>
       <c r="O6" t="n">
-        <v>334107.2654616889</v>
+        <v>334072.5275362531</v>
       </c>
       <c r="P6" t="n">
-        <v>337130.5634389136</v>
+        <v>337095.8255134772</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494558</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26759,10 +26759,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26777,7 +26777,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086499</v>
+        <v>981.3883278086483</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26966,13 +26966,13 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>618.6941671564927</v>
+        <v>618.6941671564913</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218281</v>
+        <v>145.870781221829</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.486033852678639e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.911715561524034e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>307.1010550540943</v>
+        <v>307.1010550540927</v>
       </c>
       <c r="F4" t="n">
-        <v>178.756962517357</v>
+        <v>178.7569625173577</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540943</v>
+        <v>307.1010550540927</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517357</v>
+        <v>178.7569625173577</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540943</v>
+        <v>307.1010550540927</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517357</v>
+        <v>178.7569625173577</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.2590476622121</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>152.4009045758606</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>185.119415352133</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>72.65544900068801</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>28.06971808504605</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>142.1113494150891</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>84.18691964619586</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>60.75731870479365</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>53.96496405397309</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>139.6603196880151</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-9.831888791845538e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485656</v>
+        <v>4.87304630148565</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508998</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380259</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307185</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726065</v>
+        <v>619.8697634726058</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216983</v>
+        <v>769.0032542216974</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857437</v>
+        <v>855.6642913857428</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898399</v>
+        <v>869.5098341898389</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294419</v>
+        <v>821.0534800294409</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615146</v>
+        <v>700.7501494615138</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895595</v>
+        <v>526.2341787895589</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356986</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475347</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188524</v>
+        <v>0.3898437041188519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191525</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059649</v>
+        <v>89.7692132059648</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783045</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>421.023327720256</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256424</v>
+        <v>566.1178216256417</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845339</v>
+        <v>660.6327957845331</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147149</v>
+        <v>678.1177801147142</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431818</v>
+        <v>179.5642660017227</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205472</v>
       </c>
       <c r="Q12" t="n">
-        <v>272.1495468613053</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697593</v>
+        <v>48.42963285697588</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780659</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190413</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236088</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737177</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691799</v>
+        <v>65.73539745691792</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619745</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550918</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263714</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973099</v>
+        <v>334.4993788973095</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050064</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
-        <v>264.37234817619</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570623</v>
+        <v>98.28514988570612</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929617</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826917</v>
+        <v>9.339672552826906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>427.3161054158224</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162525</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292895</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659437</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521088</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007745</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420743</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422566</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473046</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>745.546647686209</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071753</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558138</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742415</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121561</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162525</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292895</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659437</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521088</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305312</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473046</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.546647686209</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071753</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437213</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742415</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121561</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,7 +34214,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086121008</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>385.2437196681532</v>
       </c>
       <c r="N8" t="n">
-        <v>414.988053188535</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35255,22 +35255,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>31.12365402878115</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040322</v>
+        <v>232.5478090040318</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276259</v>
+        <v>399.7799124276252</v>
       </c>
       <c r="L11" t="n">
-        <v>533.236839251711</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.318058158471</v>
+        <v>625.3180581584701</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932489</v>
+        <v>640.096770593248</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077551</v>
+        <v>590.9552686077542</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062451</v>
+        <v>469.5171537062443</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151099</v>
+        <v>303.9284889151094</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156644</v>
+        <v>90.5209569215661</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116378</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>283.181888745897</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457682</v>
+        <v>427.5634418457675</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625155</v>
+        <v>518.4987618625148</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313817</v>
+        <v>546.7760680313809</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987373</v>
+        <v>36.96802155727825</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062169</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.1677727752838</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936573</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701861</v>
+        <v>61.18259316701844</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360916</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112341</v>
+        <v>352.5708868112338</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788212</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765385</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619046</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410835</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998383</v>
+        <v>96.87566713998361</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>295.9743933324891</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.70871103964</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036774</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462653</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902908</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193475</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243122</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924703</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774489</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754076</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678976</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674304</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641906</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238421</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113693</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295265</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096338</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066237</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.70871103964</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036774</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462653</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902908</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193475</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243122</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924703</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902693</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561722</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674304</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641906</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238421</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992769</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295265</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096338</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066237</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193667</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287676</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
